--- a/Project_Timeline.xlsx
+++ b/Project_Timeline.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bparker17/Desktop/SmashCharacters/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:11_{4E8FE0DC-5683-2E41-ADE1-7C0AFE474DA0}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{001CF940-DC04-934C-AD81-D3698FED5CA9}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28780" windowHeight="16420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6120" yWindow="460" windowWidth="22660" windowHeight="16420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="3" r:id="rId1"/>
@@ -1074,8 +1074,8 @@
   </sheetPr>
   <dimension ref="B1:G27"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A2" zoomScale="112" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="112" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="33" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1130,7 +1130,7 @@
       <c r="D3" s="34"/>
       <c r="E3" s="38">
         <f>AVERAGE(E4:E9)</f>
-        <v>0.25</v>
+        <v>0.29166666666666669</v>
       </c>
       <c r="F3" s="39">
         <f>--(Tasks[[#This Row],[% COMPLETE]]&gt;=1)</f>
@@ -1147,7 +1147,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="10">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="F4" s="4">
         <f>--(Tasks[[#This Row],[% COMPLETE]]&gt;=1)</f>
@@ -1659,25 +1659,6 @@
           <xm:sqref>E7</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="6" id="{BDDD15B8-D265-204C-BFE7-DAB0CB60D4FC}">
-            <x14:iconSet custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="4TrafficLights" iconId="0"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>F7:F9</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{CD15136A-D1A1-AF43-9E69-43A4D94F3382}">
             <x14:dataBar minLength="0" maxLength="100" border="1" gradient="0" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="num">
@@ -1710,6 +1691,25 @@
             </x14:dataBar>
           </x14:cfRule>
           <xm:sqref>E27</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="6" id="{BDDD15B8-D265-204C-BFE7-DAB0CB60D4FC}">
+            <x14:iconSet custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="4TrafficLights" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>F7:F9</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="2" id="{1A5070ED-3578-5741-A8F9-18D55E1EAC18}">
@@ -1778,7 +1778,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6D3EE49-49FC-C443-82C4-4AB1E2A5F817}">
   <dimension ref="B2:F46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" workbookViewId="0">
+    <sheetView zoomScale="90" workbookViewId="0">
       <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
@@ -1819,7 +1819,7 @@
       <c r="E3" s="41"/>
       <c r="F3" s="41"/>
     </row>
-    <row r="4" spans="2:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B4" s="40" t="s">
         <v>24</v>
       </c>

--- a/Project_Timeline.xlsx
+++ b/Project_Timeline.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bparker17/Desktop/SmashCharacters/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cartk\OneDrive\Documents\GitHub\SmashCharacters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{001CF940-DC04-934C-AD81-D3698FED5CA9}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:1_{001CF940-DC04-934C-AD81-D3698FED5CA9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="41" xr10:uidLastSave="{1D60A09C-7B83-4280-B992-C3D38A10B95B}"/>
   <bookViews>
-    <workbookView xWindow="6120" yWindow="460" windowWidth="22660" windowHeight="16420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="3" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="103">
   <si>
     <t>START DATE</t>
   </si>
@@ -366,6 +366,9 @@
     <t>This excel document serves as the project timeline for the Smash Ultimate Character Quiz web app. 
 The TASKS tab is the abbrieviated version with just the tasks and dates to be completed. 
 The Tasks breakdown tab has a bit more information for each tasks such as its objectives and who will be completing it.</t>
+  </si>
+  <si>
+    <t>Finished 2/23/19</t>
   </si>
 </sst>
 </file>
@@ -1047,13 +1050,13 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="122.83203125" customWidth="1"/>
+    <col min="3" max="3" width="122.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:3" ht="60" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:3" ht="72" x14ac:dyDescent="0.3">
       <c r="B4" s="45" t="s">
         <v>100</v>
       </c>
@@ -1075,22 +1078,22 @@
   <dimension ref="B1:G27"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="112" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="33" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.44140625" defaultRowHeight="33" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2.6640625" customWidth="1"/>
-    <col min="2" max="2" width="32.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.83203125" customWidth="1"/>
-    <col min="4" max="4" width="16.5" customWidth="1"/>
-    <col min="5" max="5" width="18.83203125" customWidth="1"/>
+    <col min="2" max="2" width="32.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.77734375" customWidth="1"/>
+    <col min="4" max="4" width="16.44140625" customWidth="1"/>
+    <col min="5" max="5" width="18.77734375" customWidth="1"/>
     <col min="6" max="6" width="3" customWidth="1"/>
-    <col min="7" max="7" width="29.5" customWidth="1"/>
-    <col min="8" max="8" width="2.5" customWidth="1"/>
+    <col min="7" max="7" width="29.44140625" customWidth="1"/>
+    <col min="8" max="8" width="2.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B1" s="1" t="s">
         <v>6</v>
       </c>
@@ -1100,7 +1103,7 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="2:7" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
@@ -1120,7 +1123,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="33" t="s">
         <v>8</v>
       </c>
@@ -1130,7 +1133,7 @@
       <c r="D3" s="34"/>
       <c r="E3" s="38">
         <f>AVERAGE(E4:E9)</f>
-        <v>0.29166666666666669</v>
+        <v>0.375</v>
       </c>
       <c r="F3" s="39">
         <f>--(Tasks[[#This Row],[% COMPLETE]]&gt;=1)</f>
@@ -1138,7 +1141,7 @@
       </c>
       <c r="G3" s="37"/>
     </row>
-    <row r="4" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="9" t="s">
         <v>24</v>
       </c>
@@ -1155,7 +1158,7 @@
       </c>
       <c r="G4" s="7"/>
     </row>
-    <row r="5" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="9" t="s">
         <v>13</v>
       </c>
@@ -1164,15 +1167,17 @@
         <v>38</v>
       </c>
       <c r="E5" s="10">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="F5" s="4">
         <f>--(Tasks[[#This Row],[% COMPLETE]]&gt;=1)</f>
-        <v>0</v>
-      </c>
-      <c r="G5" s="7"/>
-    </row>
-    <row r="6" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="15" t="s">
         <v>33</v>
       </c>
@@ -1189,7 +1194,7 @@
       </c>
       <c r="G6" s="11"/>
     </row>
-    <row r="7" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="15" t="s">
         <v>14</v>
       </c>
@@ -1206,7 +1211,7 @@
       </c>
       <c r="G7" s="11"/>
     </row>
-    <row r="8" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="15" t="s">
         <v>25</v>
       </c>
@@ -1223,7 +1228,7 @@
       </c>
       <c r="G8" s="11"/>
     </row>
-    <row r="9" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="15" t="s">
         <v>26</v>
       </c>
@@ -1232,7 +1237,7 @@
       </c>
       <c r="D9" s="12"/>
       <c r="E9" s="10">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="F9" s="24">
         <f>--(Tasks[[#This Row],[% COMPLETE]]&gt;=1)</f>
@@ -1240,7 +1245,7 @@
       </c>
       <c r="G9" s="11"/>
     </row>
-    <row r="10" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="33" t="s">
         <v>9</v>
       </c>
@@ -1257,7 +1262,7 @@
       </c>
       <c r="G10" s="37"/>
     </row>
-    <row r="11" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="15" t="s">
         <v>34</v>
       </c>
@@ -1274,7 +1279,7 @@
       </c>
       <c r="G11" s="11"/>
     </row>
-    <row r="12" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="15" t="s">
         <v>28</v>
       </c>
@@ -1291,7 +1296,7 @@
       </c>
       <c r="G12" s="11"/>
     </row>
-    <row r="13" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="20" t="s">
         <v>27</v>
       </c>
@@ -1308,7 +1313,7 @@
       </c>
       <c r="G13" s="16"/>
     </row>
-    <row r="14" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="15" t="s">
         <v>29</v>
       </c>
@@ -1325,7 +1330,7 @@
       </c>
       <c r="G14" s="11"/>
     </row>
-    <row r="15" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="26" t="s">
         <v>10</v>
       </c>
@@ -1342,7 +1347,7 @@
       </c>
       <c r="G15" s="31"/>
     </row>
-    <row r="16" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="20" t="s">
         <v>15</v>
       </c>
@@ -1359,7 +1364,7 @@
       </c>
       <c r="G16" s="16"/>
     </row>
-    <row r="17" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="15" t="s">
         <v>32</v>
       </c>
@@ -1376,7 +1381,7 @@
       </c>
       <c r="G17" s="11"/>
     </row>
-    <row r="18" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="15" t="s">
         <v>31</v>
       </c>
@@ -1393,7 +1398,7 @@
       </c>
       <c r="G18" s="11"/>
     </row>
-    <row r="19" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="15" t="s">
         <v>30</v>
       </c>
@@ -1410,7 +1415,7 @@
       </c>
       <c r="G19" s="11"/>
     </row>
-    <row r="20" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="26" t="s">
         <v>11</v>
       </c>
@@ -1427,7 +1432,7 @@
       </c>
       <c r="G20" s="31"/>
     </row>
-    <row r="21" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="20" t="s">
         <v>16</v>
       </c>
@@ -1444,7 +1449,7 @@
       </c>
       <c r="G21" s="16"/>
     </row>
-    <row r="22" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="15" t="s">
         <v>23</v>
       </c>
@@ -1461,7 +1466,7 @@
       </c>
       <c r="G22" s="11"/>
     </row>
-    <row r="23" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="15" t="s">
         <v>21</v>
       </c>
@@ -1478,7 +1483,7 @@
       </c>
       <c r="G23" s="11"/>
     </row>
-    <row r="24" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="26" t="s">
         <v>12</v>
       </c>
@@ -1495,7 +1500,7 @@
       </c>
       <c r="G24" s="31"/>
     </row>
-    <row r="25" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="15" t="s">
         <v>20</v>
       </c>
@@ -1512,7 +1517,7 @@
       </c>
       <c r="G25" s="11"/>
     </row>
-    <row r="26" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="20" t="s">
         <v>19</v>
       </c>
@@ -1529,7 +1534,7 @@
       </c>
       <c r="G26" s="16"/>
     </row>
-    <row r="27" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="20" t="s">
         <v>17</v>
       </c>
@@ -1782,16 +1787,16 @@
       <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="25.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="56.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="56.77734375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="24.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="21" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:6" ht="21" x14ac:dyDescent="0.3">
       <c r="B2" s="42" t="s">
         <v>5</v>
       </c>
@@ -1808,7 +1813,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="2:6" ht="20" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:6" ht="18" x14ac:dyDescent="0.3">
       <c r="B3" s="43" t="s">
         <v>8</v>
       </c>
@@ -1819,7 +1824,7 @@
       <c r="E3" s="41"/>
       <c r="F3" s="41"/>
     </row>
-    <row r="4" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B4" s="40" t="s">
         <v>24</v>
       </c>
@@ -1833,10 +1838,10 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B5" s="40"/>
     </row>
-    <row r="6" spans="2:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B6" s="40" t="s">
         <v>13</v>
       </c>
@@ -1850,10 +1855,10 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B7" s="40"/>
     </row>
-    <row r="8" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B8" s="40" t="s">
         <v>33</v>
       </c>
@@ -1867,10 +1872,10 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B9" s="40"/>
     </row>
-    <row r="10" spans="2:6" ht="64" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B10" s="40" t="s">
         <v>14</v>
       </c>
@@ -1884,10 +1889,10 @@
         <v>71</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B11" s="40"/>
     </row>
-    <row r="12" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B12" s="40" t="s">
         <v>25</v>
       </c>
@@ -1901,10 +1906,10 @@
         <v>69</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B13" s="40"/>
     </row>
-    <row r="14" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B14" s="40" t="s">
         <v>55</v>
       </c>
@@ -1918,10 +1923,10 @@
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B15" s="40"/>
     </row>
-    <row r="16" spans="2:6" ht="20" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:6" ht="18" x14ac:dyDescent="0.3">
       <c r="B16" s="43" t="s">
         <v>9</v>
       </c>
@@ -1932,7 +1937,7 @@
       <c r="E16" s="41"/>
       <c r="F16" s="41"/>
     </row>
-    <row r="17" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B17" s="40" t="s">
         <v>34</v>
       </c>
@@ -1946,10 +1951,10 @@
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B18" s="40"/>
     </row>
-    <row r="19" spans="2:6" ht="48" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B19" s="40" t="s">
         <v>28</v>
       </c>
@@ -1963,10 +1968,10 @@
         <v>69</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B20" s="40"/>
     </row>
-    <row r="21" spans="2:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B21" s="40" t="s">
         <v>27</v>
       </c>
@@ -1980,10 +1985,10 @@
         <v>67</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B22" s="40"/>
     </row>
-    <row r="23" spans="2:6" ht="64" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B23" s="40" t="s">
         <v>29</v>
       </c>
@@ -1997,10 +2002,10 @@
         <v>71</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B24" s="40"/>
     </row>
-    <row r="25" spans="2:6" ht="20" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:6" ht="18" x14ac:dyDescent="0.3">
       <c r="B25" s="43" t="s">
         <v>10</v>
       </c>
@@ -2011,7 +2016,7 @@
       <c r="E25" s="41"/>
       <c r="F25" s="41"/>
     </row>
-    <row r="26" spans="2:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B26" s="40" t="s">
         <v>15</v>
       </c>
@@ -2025,10 +2030,10 @@
         <v>73</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B27" s="40"/>
     </row>
-    <row r="28" spans="2:6" ht="48" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B28" s="40" t="s">
         <v>32</v>
       </c>
@@ -2042,10 +2047,10 @@
         <v>60</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B29" s="40"/>
     </row>
-    <row r="30" spans="2:6" ht="48" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B30" s="40" t="s">
         <v>31</v>
       </c>
@@ -2059,10 +2064,10 @@
         <v>61</v>
       </c>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B31" s="40"/>
     </row>
-    <row r="32" spans="2:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B32" s="40" t="s">
         <v>30</v>
       </c>
@@ -2076,10 +2081,10 @@
         <v>70</v>
       </c>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B33" s="40"/>
     </row>
-    <row r="34" spans="2:6" ht="20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:6" ht="18" x14ac:dyDescent="0.3">
       <c r="B34" s="43" t="s">
         <v>11</v>
       </c>
@@ -2090,7 +2095,7 @@
       <c r="E34" s="41"/>
       <c r="F34" s="41"/>
     </row>
-    <row r="35" spans="2:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B35" s="40" t="s">
         <v>16</v>
       </c>
@@ -2104,10 +2109,10 @@
         <v>81</v>
       </c>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B36" s="40"/>
     </row>
-    <row r="37" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B37" s="40" t="s">
         <v>23</v>
       </c>
@@ -2121,10 +2126,10 @@
         <v>78</v>
       </c>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B38" s="40"/>
     </row>
-    <row r="39" spans="2:6" ht="48" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B39" s="40" t="s">
         <v>21</v>
       </c>
@@ -2138,10 +2143,10 @@
         <v>59</v>
       </c>
     </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B40" s="40"/>
     </row>
-    <row r="41" spans="2:6" ht="20" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:6" ht="18" x14ac:dyDescent="0.3">
       <c r="B41" s="43" t="s">
         <v>12</v>
       </c>
@@ -2152,7 +2157,7 @@
       <c r="E41" s="41"/>
       <c r="F41" s="41"/>
     </row>
-    <row r="42" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B42" s="40" t="s">
         <v>20</v>
       </c>
@@ -2166,10 +2171,10 @@
         <v>51</v>
       </c>
     </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B43" s="40"/>
     </row>
-    <row r="44" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B44" s="40" t="s">
         <v>19</v>
       </c>
@@ -2183,10 +2188,10 @@
         <v>51</v>
       </c>
     </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B45" s="40"/>
     </row>
-    <row r="46" spans="2:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B46" s="40" t="s">
         <v>17</v>
       </c>

--- a/Project_Timeline.xlsx
+++ b/Project_Timeline.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cartk\OneDrive\Documents\GitHub\SmashCharacters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:1_{001CF940-DC04-934C-AD81-D3698FED5CA9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="41" xr10:uidLastSave="{1D60A09C-7B83-4280-B992-C3D38A10B95B}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="13_ncr:1_{001CF940-DC04-934C-AD81-D3698FED5CA9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="41" xr10:uidLastSave="{87577688-4F74-4091-B274-A61683B32A69}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="104">
   <si>
     <t>START DATE</t>
   </si>
@@ -369,6 +369,9 @@
   </si>
   <si>
     <t>Finished 2/23/19</t>
+  </si>
+  <si>
+    <t>Finished 2/25/19</t>
   </si>
 </sst>
 </file>
@@ -1078,7 +1081,7 @@
   <dimension ref="B1:G27"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="112" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.44140625" defaultRowHeight="33" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1133,7 +1136,7 @@
       <c r="D3" s="34"/>
       <c r="E3" s="38">
         <f>AVERAGE(E4:E9)</f>
-        <v>0.375</v>
+        <v>0.5</v>
       </c>
       <c r="F3" s="39">
         <f>--(Tasks[[#This Row],[% COMPLETE]]&gt;=1)</f>
@@ -1237,13 +1240,15 @@
       </c>
       <c r="D9" s="12"/>
       <c r="E9" s="10">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="F9" s="24">
         <f>--(Tasks[[#This Row],[% COMPLETE]]&gt;=1)</f>
-        <v>0</v>
-      </c>
-      <c r="G9" s="11"/>
+        <v>1</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="10" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="33" t="s">
